--- a/HW #8 (SORT)/SORT_REPORT.xlsx
+++ b/HW #8 (SORT)/SORT_REPORT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\HW #3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\BozhnyukSPBUhw\HW #8 (SORT)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,9 +77,6 @@
     <t>0.2500000000</t>
   </si>
   <si>
-    <t>28.8550000000</t>
-  </si>
-  <si>
     <t>0.0020000000</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Не дождались (~ 1.80 суток)</t>
+  </si>
+  <si>
+    <t>22.8980000000</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -776,10 +776,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
